--- a/documents/ccb_proj_mgt.xlsx
+++ b/documents/ccb_proj_mgt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112671/Documents/tmp/ccb_project_management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112671/Documents/tmp/ccb_project_management/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A13F9CB-8414-B441-A68C-AEA11DF7885F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7318E60-836D-4C48-9BCC-C48EC394F78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{26031F6B-AA17-7943-AEA2-E25B1637DE85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
   <si>
     <t>project_type</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Federica Cappellesso</t>
   </si>
   <si>
-    <t>Benchmarking in 4 different datasets</t>
-  </si>
-  <si>
     <t>Benchmarking of EIF2AK3/PERK in Single Cell data</t>
   </si>
   <si>
@@ -367,6 +364,24 @@
   </si>
   <si>
     <t>Biostatistics</t>
+  </si>
+  <si>
+    <t>Benchmarking in 5 different datasets</t>
+  </si>
+  <si>
+    <t>DESeq2 RNAseq experimental design and quality control</t>
+  </si>
+  <si>
+    <t>Sebastian Dumas</t>
+  </si>
+  <si>
+    <t>Seb needs help comparing contrasts and correction for batch effects</t>
+  </si>
+  <si>
+    <t>CCB Single Cell Bioinformatics Pipeline</t>
+  </si>
+  <si>
+    <t>Single cell pipeline Seurat that follows DiLA lab guidelines set out by Bram and is used for other single cell projects</t>
   </si>
 </sst>
 </file>
@@ -728,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837E5B2-4544-3646-A14E-E013871A588B}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,80 +821,80 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>44068</v>
+        <v>44064</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -888,94 +903,94 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>44074</v>
+        <v>44068</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>44080</v>
+        <v>44076</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -989,7 +1004,7 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -998,7 +1013,7 @@
         <v>44080</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1009,19 +1024,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>44080</v>
@@ -1033,369 +1048,369 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>44090</v>
+        <v>44080</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
-        <v>44081</v>
+        <v>44090</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
-        <v>44102</v>
+        <v>44081</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
         <v>44103</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1">
-        <v>44118</v>
+        <v>44103</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
-        <v>44139</v>
+        <v>44118</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1">
-        <v>44155</v>
+        <v>44139</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
-        <v>44186</v>
+        <v>44155</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
-        <v>44213</v>
+        <v>44186</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="1">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1">
         <v>44217</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
@@ -1410,12 +1425,12 @@
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1424,27 +1439,27 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="1">
-        <v>44222</v>
+        <v>44217</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1453,106 +1468,106 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1">
-        <v>44229</v>
+        <v>44222</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
-        <v>44237</v>
+        <v>44229</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1">
-        <v>44265</v>
+        <v>44238</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
         <v>108</v>
@@ -1560,36 +1575,36 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1">
-        <v>44270</v>
+        <v>44265</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1598,51 +1613,109 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1">
-        <v>44277</v>
+        <v>44272</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
         <v>51</v>
       </c>
       <c r="I31" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44277</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44292</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/documents/ccb_proj_mgt.xlsx
+++ b/documents/ccb_proj_mgt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112671/Documents/tmp/ccb_project_management/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7318E60-836D-4C48-9BCC-C48EC394F78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A01B1-0F1F-E447-B62F-01108F506363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{26031F6B-AA17-7943-AEA2-E25B1637DE85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="123">
   <si>
     <t>project_type</t>
   </si>
@@ -382,6 +382,18 @@
   </si>
   <si>
     <t>Single cell pipeline Seurat that follows DiLA lab guidelines set out by Bram and is used for other single cell projects</t>
+  </si>
+  <si>
+    <t>Single Cell Analysis of Grand Challenge Breast Cancer Data</t>
+  </si>
+  <si>
+    <t>Deconvolution</t>
+  </si>
+  <si>
+    <t>Federico Virga</t>
+  </si>
+  <si>
+    <t>Deconvolution of Bulk RNAseq on PDAC Samples</t>
   </si>
 </sst>
 </file>
@@ -743,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837E5B2-4544-3646-A14E-E013871A588B}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +822,7 @@
         <v>44061</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -839,7 +851,7 @@
         <v>44061</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1451,7 +1463,7 @@
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
         <v>67</v>
@@ -1480,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
         <v>113</v>
@@ -1509,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
         <v>109</v>
@@ -1538,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
         <v>81</v>
@@ -1567,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
         <v>108</v>
@@ -1654,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
         <v>106</v>
@@ -1709,13 +1721,65 @@
         <v>44292</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44296</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44307</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/documents/ccb_proj_mgt.xlsx
+++ b/documents/ccb_proj_mgt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112671/Documents/tmp/ccb_project_management/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A01B1-0F1F-E447-B62F-01108F506363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C8F5E-DC3A-0B48-9D51-658A28223EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{26031F6B-AA17-7943-AEA2-E25B1637DE85}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{26031F6B-AA17-7943-AEA2-E25B1637DE85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
   <si>
     <t>project_type</t>
   </si>
@@ -394,6 +394,54 @@
   </si>
   <si>
     <t>Deconvolution of Bulk RNAseq on PDAC Samples</t>
+  </si>
+  <si>
+    <t>Ward Celus</t>
+  </si>
+  <si>
+    <t>Upstream Regulator Analysis of PD1 and PlxnA4</t>
+  </si>
+  <si>
+    <t>3’GEX processed data from 11 pre/post anti-PD1 treated melanoma patients</t>
+  </si>
+  <si>
+    <t>Madhur Agrawhal</t>
+  </si>
+  <si>
+    <t>Bulk RNAseq Analysis of Mice RIPTAG samples</t>
+  </si>
+  <si>
+    <t>Bergers</t>
+  </si>
+  <si>
+    <t>Parallel analysis of SC RIPTAG project, but with bulk RNAseq</t>
+  </si>
+  <si>
+    <t>A repeat of the previous SNP calling project</t>
+  </si>
+  <si>
+    <t>Grand Challenge Bulk RNAseq Melanoma analysis</t>
+  </si>
+  <si>
+    <t>Grand Challenge Cite-Seq SC Melanoma analysis</t>
+  </si>
+  <si>
+    <t>This project was passed off to Ayse</t>
+  </si>
+  <si>
+    <t>This project was sidelined because Max had more important research priorties</t>
+  </si>
+  <si>
+    <t>Report was delivered and Ward is setting up further in-vivo experiments</t>
+  </si>
+  <si>
+    <t>A script was sent to Sanket to help him with this analysis, and I may help him later on with downstream analyses</t>
+  </si>
+  <si>
+    <t>NGS analysis DNA (de)demethylation screening</t>
+  </si>
+  <si>
+    <t>Heleen van Acker</t>
   </si>
 </sst>
 </file>
@@ -755,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837E5B2-4544-3646-A14E-E013871A588B}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,7 +870,7 @@
         <v>44061</v>
       </c>
       <c r="G2">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -851,7 +899,7 @@
         <v>44061</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1431,7 +1479,7 @@
         <v>44217</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
@@ -1750,10 +1798,13 @@
         <v>44296</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1776,9 +1827,183 @@
         <v>44307</v>
       </c>
       <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44319</v>
+      </c>
+      <c r="G36">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44328</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44336</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44361</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
         <v>51</v>
       </c>
     </row>

--- a/documents/ccb_proj_mgt.xlsx
+++ b/documents/ccb_proj_mgt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112671/Documents/tmp/ccb_project_management/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C8F5E-DC3A-0B48-9D51-658A28223EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ADB911-3BE9-744B-9A6E-048780FD121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{26031F6B-AA17-7943-AEA2-E25B1637DE85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="141">
   <si>
     <t>project_type</t>
   </si>
@@ -420,9 +420,6 @@
     <t>A repeat of the previous SNP calling project</t>
   </si>
   <si>
-    <t>Grand Challenge Bulk RNAseq Melanoma analysis</t>
-  </si>
-  <si>
     <t>Grand Challenge Cite-Seq SC Melanoma analysis</t>
   </si>
   <si>
@@ -442,6 +439,15 @@
   </si>
   <si>
     <t>Heleen van Acker</t>
+  </si>
+  <si>
+    <t>Bulk RNAseq Melanoma analysis</t>
+  </si>
+  <si>
+    <t>This project consisted of a MAGeCK CRISPR screen</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837E5B2-4544-3646-A14E-E013871A588B}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +827,7 @@
     <col min="8" max="8" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +879,7 @@
         <v>44061</v>
       </c>
       <c r="G2">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -878,8 +887,11 @@
       <c r="I2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -907,8 +919,11 @@
       <c r="I3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -936,8 +951,11 @@
       <c r="I4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -965,8 +983,11 @@
       <c r="I5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -994,8 +1015,11 @@
       <c r="I6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1023,8 +1047,11 @@
       <c r="I7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1052,8 +1079,11 @@
       <c r="I8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1081,8 +1111,11 @@
       <c r="I9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1110,8 +1143,11 @@
       <c r="I10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1139,8 +1175,11 @@
       <c r="I11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -1168,8 +1207,11 @@
       <c r="I12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1197,8 +1239,11 @@
       <c r="I13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1226,8 +1271,11 @@
       <c r="I14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1255,8 +1303,11 @@
       <c r="I15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1284,8 +1335,11 @@
       <c r="I16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1313,8 +1367,11 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1342,8 +1399,11 @@
       <c r="I18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1371,8 +1431,11 @@
       <c r="I19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1392,16 +1455,19 @@
         <v>44186</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1429,8 +1495,11 @@
       <c r="I21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1458,8 +1527,11 @@
       <c r="I22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1482,13 +1554,16 @@
         <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1516,8 +1591,11 @@
       <c r="I24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1545,8 +1623,11 @@
       <c r="I25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1574,8 +1655,11 @@
       <c r="I26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1603,8 +1687,11 @@
       <c r="I27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1632,8 +1719,11 @@
       <c r="I28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -1661,8 +1751,11 @@
       <c r="I29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1690,8 +1783,11 @@
       <c r="I30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -1719,8 +1815,11 @@
       <c r="I31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -1743,13 +1842,16 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -1777,8 +1879,11 @@
       <c r="I33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -1801,13 +1906,16 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="J34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -1830,13 +1938,16 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="J35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -1864,8 +1975,11 @@
       <c r="I36" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -1891,12 +2005,15 @@
         <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="J37">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1914,7 +2031,7 @@
         <v>44321</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
         <v>51</v>
@@ -1922,8 +2039,11 @@
       <c r="I38" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1943,7 +2063,7 @@
         <v>44328</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
         <v>51</v>
@@ -1951,10 +2071,13 @@
       <c r="I39" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -1972,18 +2095,21 @@
         <v>44336</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>137</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
@@ -1992,7 +2118,7 @@
         <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
@@ -2001,10 +2127,16 @@
         <v>44361</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/documents/ccb_proj_mgt.xlsx
+++ b/documents/ccb_proj_mgt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0112671/Documents/tmp/ccb_project_management/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ADB911-3BE9-744B-9A6E-048780FD121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E36CC4-2134-364B-8857-74D2D2444158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{26031F6B-AA17-7943-AEA2-E25B1637DE85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t>project_type</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Benchmarking of scRNA sequencing of CRC samples</t>
+  </si>
+  <si>
+    <t>Four different datasets will be benchmarked</t>
+  </si>
+  <si>
+    <t>Profiling Circular DNA Elements in Melanoma</t>
   </si>
 </sst>
 </file>
@@ -809,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837E5B2-4544-3646-A14E-E013871A588B}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
         <v>129</v>
@@ -2063,10 +2072,10 @@
         <v>44328</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
         <v>130</v>
@@ -2136,6 +2145,67 @@
         <v>139</v>
       </c>
       <c r="J41">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44413</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43">
         <v>2021</v>
       </c>
     </row>
